--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_16ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_16ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1452,28 +1452,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.4810350179575</v>
+        <v>85.87223624531352</v>
       </c>
       <c r="AB2" t="n">
-        <v>84.12106446337528</v>
+        <v>117.4941820464804</v>
       </c>
       <c r="AC2" t="n">
-        <v>76.09266813566613</v>
+        <v>106.280702216115</v>
       </c>
       <c r="AD2" t="n">
-        <v>61481.0350179575</v>
+        <v>85872.23624531351</v>
       </c>
       <c r="AE2" t="n">
-        <v>84121.06446337528</v>
+        <v>117494.1820464804</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.163588244020739e-06</v>
+        <v>7.703728338918279e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.65234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>76092.66813566613</v>
+        <v>106280.702216115</v>
       </c>
     </row>
     <row r="3">
@@ -1558,28 +1558,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>61.14939294939337</v>
+        <v>85.54059417674939</v>
       </c>
       <c r="AB3" t="n">
-        <v>83.66729715415062</v>
+        <v>117.0404147372557</v>
       </c>
       <c r="AC3" t="n">
-        <v>75.68220774156731</v>
+        <v>105.8702418220162</v>
       </c>
       <c r="AD3" t="n">
-        <v>61149.39294939338</v>
+        <v>85540.59417674939</v>
       </c>
       <c r="AE3" t="n">
-        <v>83667.29715415061</v>
+        <v>117040.4147372557</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.210738090990482e-06</v>
+        <v>7.790967900322579e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.606770833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>75682.20774156731</v>
+        <v>105870.2418220162</v>
       </c>
     </row>
   </sheetData>
@@ -1855,28 +1855,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.2306818548445</v>
+        <v>82.75810612027865</v>
       </c>
       <c r="AB2" t="n">
-        <v>81.04203198703078</v>
+        <v>113.2332918236849</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.30749419741375</v>
+        <v>102.4264653759848</v>
       </c>
       <c r="AD2" t="n">
-        <v>59230.6818548445</v>
+        <v>82758.10612027865</v>
       </c>
       <c r="AE2" t="n">
-        <v>81042.03198703079</v>
+        <v>113233.2918236849</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.316590907314362e-06</v>
+        <v>8.22808845916979e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.639322916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>73307.49419741375</v>
+        <v>102426.4653759848</v>
       </c>
     </row>
   </sheetData>
@@ -2152,28 +2152,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.90346783456081</v>
+        <v>73.83035281694228</v>
       </c>
       <c r="AB2" t="n">
-        <v>72.3848586275009</v>
+        <v>101.0179458893881</v>
       </c>
       <c r="AC2" t="n">
-        <v>65.47654931289551</v>
+        <v>91.37693491330766</v>
       </c>
       <c r="AD2" t="n">
-        <v>52903.4678345608</v>
+        <v>73830.35281694228</v>
       </c>
       <c r="AE2" t="n">
-        <v>72384.8586275009</v>
+        <v>101017.9458893881</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.594668588402853e-06</v>
+        <v>9.785441655046499e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.815104166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>65476.54931289552</v>
+        <v>91376.93491330766</v>
       </c>
     </row>
   </sheetData>
@@ -2449,28 +2449,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.91137513830637</v>
+        <v>76.85496723070676</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.13216598310261</v>
+        <v>105.156356766869</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.96165751034955</v>
+        <v>95.12038166493927</v>
       </c>
       <c r="AD2" t="n">
-        <v>54911.37513830637</v>
+        <v>76854.96723070677</v>
       </c>
       <c r="AE2" t="n">
-        <v>75132.1659831026</v>
+        <v>105156.356766869</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.6020168956748e-06</v>
+        <v>9.343685361170909e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.645833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>67961.65751034956</v>
+        <v>95120.38166493927</v>
       </c>
     </row>
   </sheetData>
@@ -2746,28 +2746,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.76552592090805</v>
+        <v>81.7732511688742</v>
       </c>
       <c r="AB2" t="n">
-        <v>84.51031746764488</v>
+        <v>111.88576983044</v>
       </c>
       <c r="AC2" t="n">
-        <v>76.44477137952839</v>
+        <v>101.2075489905158</v>
       </c>
       <c r="AD2" t="n">
-        <v>61765.52592090805</v>
+        <v>81773.25116887419</v>
       </c>
       <c r="AE2" t="n">
-        <v>84510.31746764488</v>
+        <v>111885.76983044</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.452237937062364e-06</v>
+        <v>9.914264256732072e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.095052083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>76444.77137952839</v>
+        <v>101207.5489905158</v>
       </c>
     </row>
   </sheetData>
@@ -3043,28 +3043,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.76967649595318</v>
+        <v>83.52413715113654</v>
       </c>
       <c r="AB2" t="n">
-        <v>81.77950823376067</v>
+        <v>114.2814092750081</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.97458674621038</v>
+        <v>103.3745519687962</v>
       </c>
       <c r="AD2" t="n">
-        <v>59769.67649595319</v>
+        <v>83524.13715113654</v>
       </c>
       <c r="AE2" t="n">
-        <v>81779.50823376067</v>
+        <v>114281.4092750081</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.293369493556352e-06</v>
+        <v>8.117747054389943e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.626302083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>73974.58674621038</v>
+        <v>103374.5519687961</v>
       </c>
     </row>
   </sheetData>
@@ -3340,28 +3340,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.04417826026572</v>
+        <v>80.55810488384242</v>
       </c>
       <c r="AB2" t="n">
-        <v>83.52333777474175</v>
+        <v>110.2231530747898</v>
       </c>
       <c r="AC2" t="n">
-        <v>75.55198764328091</v>
+        <v>99.70361004452701</v>
       </c>
       <c r="AD2" t="n">
-        <v>61044.17826026572</v>
+        <v>80558.10488384242</v>
       </c>
       <c r="AE2" t="n">
-        <v>83523.33777474175</v>
+        <v>110223.1530747898</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.281415941035635e-06</v>
+        <v>9.8154318215646e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.35546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>75551.98764328091</v>
+        <v>99703.61004452701</v>
       </c>
     </row>
   </sheetData>
@@ -3637,28 +3637,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.01544363117777</v>
+        <v>79.80602496449144</v>
       </c>
       <c r="AB2" t="n">
-        <v>78.01104531999844</v>
+        <v>109.1941241497099</v>
       </c>
       <c r="AC2" t="n">
-        <v>70.56578064386551</v>
+        <v>98.77279019580526</v>
       </c>
       <c r="AD2" t="n">
-        <v>57015.44363117777</v>
+        <v>79806.02496449144</v>
       </c>
       <c r="AE2" t="n">
-        <v>78011.04531999845</v>
+        <v>109194.1241497099</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.49427214072558e-06</v>
+        <v>8.808711285276959e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.606770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>70565.78064386551</v>
+        <v>98772.79019580525</v>
       </c>
     </row>
   </sheetData>
@@ -3934,28 +3934,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.45221379882451</v>
+        <v>81.74396833083335</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.97689764919797</v>
+        <v>111.8457037595649</v>
       </c>
       <c r="AC2" t="n">
-        <v>72.34401478585792</v>
+        <v>101.1713067692119</v>
       </c>
       <c r="AD2" t="n">
-        <v>58452.21379882451</v>
+        <v>81743.96833083335</v>
       </c>
       <c r="AE2" t="n">
-        <v>79976.89764919797</v>
+        <v>111845.7037595649</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.38545320288078e-06</v>
+        <v>8.431924385803291e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.619791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>72344.01478585793</v>
+        <v>101171.3067692119</v>
       </c>
     </row>
   </sheetData>
@@ -4231,28 +4231,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.23260859213244</v>
+        <v>85.41831947087118</v>
       </c>
       <c r="AB2" t="n">
-        <v>83.78115646776121</v>
+        <v>116.873113090294</v>
       </c>
       <c r="AC2" t="n">
-        <v>75.78520048208948</v>
+        <v>105.7189072094311</v>
       </c>
       <c r="AD2" t="n">
-        <v>61232.60859213243</v>
+        <v>85418.31947087118</v>
       </c>
       <c r="AE2" t="n">
-        <v>83781.1564677612</v>
+        <v>116873.113090294</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.157933110215517e-06</v>
+        <v>7.745914019972886e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.684895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>75785.20048208948</v>
+        <v>105718.9072094311</v>
       </c>
     </row>
     <row r="3">
@@ -4337,28 +4337,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>61.27597737465199</v>
+        <v>85.46168825339073</v>
       </c>
       <c r="AB3" t="n">
-        <v>83.84049554930007</v>
+        <v>116.9324521718329</v>
       </c>
       <c r="AC3" t="n">
-        <v>75.83887632496922</v>
+        <v>105.7725830523108</v>
       </c>
       <c r="AD3" t="n">
-        <v>61275.97737465199</v>
+        <v>85461.68825339073</v>
       </c>
       <c r="AE3" t="n">
-        <v>83840.49554930007</v>
+        <v>116932.4521718329</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.174732174512513e-06</v>
+        <v>7.777209402609234e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.671875</v>
       </c>
       <c r="AH3" t="n">
-        <v>75838.87632496923</v>
+        <v>105772.5830523108</v>
       </c>
     </row>
   </sheetData>
@@ -4634,28 +4634,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.62601476308938</v>
+        <v>77.86698174130716</v>
       </c>
       <c r="AB2" t="n">
-        <v>76.10996744540535</v>
+        <v>106.5410396672009</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.84613897344342</v>
+        <v>96.37291237267866</v>
       </c>
       <c r="AD2" t="n">
-        <v>55626.01476308938</v>
+        <v>77866.98174130716</v>
       </c>
       <c r="AE2" t="n">
-        <v>76109.96744540535</v>
+        <v>106541.039667201</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.569340079953521e-06</v>
+        <v>9.159230104199468e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.626302083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>68846.13897344342</v>
+        <v>96372.91237267865</v>
       </c>
     </row>
   </sheetData>
@@ -4931,28 +4931,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>53.58696801941363</v>
+        <v>74.87746603315743</v>
       </c>
       <c r="AB2" t="n">
-        <v>73.32005373431606</v>
+        <v>102.4506523871877</v>
       </c>
       <c r="AC2" t="n">
-        <v>66.32249071127113</v>
+        <v>92.67290591377396</v>
       </c>
       <c r="AD2" t="n">
-        <v>53586.96801941363</v>
+        <v>74877.46603315743</v>
       </c>
       <c r="AE2" t="n">
-        <v>73320.05373431607</v>
+        <v>102450.6523871877</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.6100902489735e-06</v>
+        <v>9.64459710629362e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.743489583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>66322.49071127112</v>
+        <v>92672.90591377395</v>
       </c>
     </row>
   </sheetData>
@@ -7665,28 +7665,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.23607334538708</v>
+        <v>72.76684375117479</v>
       </c>
       <c r="AB2" t="n">
-        <v>71.47170004404703</v>
+        <v>99.56280586689708</v>
       </c>
       <c r="AC2" t="n">
-        <v>64.65054130302008</v>
+        <v>90.06067141226092</v>
       </c>
       <c r="AD2" t="n">
-        <v>52236.07334538708</v>
+        <v>72766.84375117479</v>
       </c>
       <c r="AE2" t="n">
-        <v>71471.70004404703</v>
+        <v>99562.80586689708</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.546896807183703e-06</v>
+        <v>9.884297859239862e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.92578125</v>
       </c>
       <c r="AH2" t="n">
-        <v>64650.54130302007</v>
+        <v>90060.67141226091</v>
       </c>
     </row>
   </sheetData>
@@ -7962,28 +7962,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.7515385599897</v>
+        <v>89.20332972853942</v>
       </c>
       <c r="AB2" t="n">
-        <v>83.1229352264719</v>
+        <v>122.0519311077006</v>
       </c>
       <c r="AC2" t="n">
-        <v>75.1897989522493</v>
+        <v>110.4034661037748</v>
       </c>
       <c r="AD2" t="n">
-        <v>60751.53855998971</v>
+        <v>89203.32972853942</v>
       </c>
       <c r="AE2" t="n">
-        <v>83122.93522647189</v>
+        <v>122051.9311077006</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.939144751398625e-06</v>
+        <v>9.369362004421996e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.86328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>75189.7989522493</v>
+        <v>110403.4661037748</v>
       </c>
     </row>
   </sheetData>
@@ -8259,28 +8259,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.81831525953022</v>
+        <v>80.86482786183707</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.10956970210614</v>
+        <v>110.6428249849446</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.55946340073386</v>
+        <v>100.08322905659</v>
       </c>
       <c r="AD2" t="n">
-        <v>57818.31525953022</v>
+        <v>80864.82786183707</v>
       </c>
       <c r="AE2" t="n">
-        <v>79109.56970210615</v>
+        <v>110642.8249849446</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.421502224888623e-06</v>
+        <v>8.580270806711426e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.626302083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>71559.46340073386</v>
+        <v>100083.22905659</v>
       </c>
     </row>
   </sheetData>
@@ -8556,28 +8556,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.42401491893905</v>
+        <v>84.39767632718765</v>
       </c>
       <c r="AB2" t="n">
-        <v>82.67480293146333</v>
+        <v>115.4766241135093</v>
       </c>
       <c r="AC2" t="n">
-        <v>74.7844357745186</v>
+        <v>104.4556971806057</v>
       </c>
       <c r="AD2" t="n">
-        <v>60424.01491893905</v>
+        <v>84397.67632718766</v>
       </c>
       <c r="AE2" t="n">
-        <v>82674.80293146333</v>
+        <v>115476.6241135093</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.243120905016423e-06</v>
+        <v>7.961759093916808e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.639322916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>74784.4357745186</v>
+        <v>104455.6971806057</v>
       </c>
     </row>
   </sheetData>
@@ -8853,28 +8853,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.84687685767447</v>
+        <v>107.2422044013537</v>
       </c>
       <c r="AB2" t="n">
-        <v>109.2500195122213</v>
+        <v>146.7335152540172</v>
       </c>
       <c r="AC2" t="n">
-        <v>98.82335098336817</v>
+        <v>132.7294744999957</v>
       </c>
       <c r="AD2" t="n">
-        <v>79846.87685767448</v>
+        <v>107242.2044013537</v>
       </c>
       <c r="AE2" t="n">
-        <v>109250.0195122213</v>
+        <v>146733.5152540172</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.304859627622694e-06</v>
+        <v>8.265203124434998e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.002604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>98823.35098336817</v>
+        <v>132729.4744999957</v>
       </c>
     </row>
   </sheetData>
@@ -9150,28 +9150,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.29282940906788</v>
+        <v>75.92072335775343</v>
       </c>
       <c r="AB2" t="n">
-        <v>74.28584442804726</v>
+        <v>103.8780830839641</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.19610769668867</v>
+        <v>93.96410462826202</v>
       </c>
       <c r="AD2" t="n">
-        <v>54292.82940906788</v>
+        <v>75920.72335775344</v>
       </c>
       <c r="AE2" t="n">
-        <v>74285.84442804726</v>
+        <v>103878.0830839641</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.609468424528876e-06</v>
+        <v>9.492202077354929e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.69140625</v>
       </c>
       <c r="AH2" t="n">
-        <v>67196.10769668868</v>
+        <v>93964.10462826202</v>
       </c>
     </row>
   </sheetData>
@@ -9447,28 +9447,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.41112275999058</v>
+        <v>78.93373741753739</v>
       </c>
       <c r="AB2" t="n">
-        <v>77.18418684328535</v>
+        <v>108.0006218453574</v>
       </c>
       <c r="AC2" t="n">
-        <v>69.81783637966649</v>
+        <v>97.69319407628875</v>
       </c>
       <c r="AD2" t="n">
-        <v>56411.12275999058</v>
+        <v>78933.73741753738</v>
       </c>
       <c r="AE2" t="n">
-        <v>77184.18684328535</v>
+        <v>108000.6218453574</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.5140258426356e-06</v>
+        <v>8.943116279606739e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.626302083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>69817.83637966649</v>
+        <v>97693.19407628875</v>
       </c>
     </row>
   </sheetData>
